--- a/useful_checks.xlsx
+++ b/useful_checks.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,6 +769,41 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44918</v>
+      </c>
+      <c r="C10" t="n">
+        <v>291.81</v>
+      </c>
+      <c r="D10" t="n">
+        <v>912.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>621.09</v>
+      </c>
+      <c r="F10" t="n">
+        <v>60.51</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>59.81</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1734.09</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1740</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
